--- a/random_vibration/results.xlsx
+++ b/random_vibration/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NetAdmin\Desktop\REPOS\Structural-Analysis\random_vibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC69C8AE-2456-4396-89A0-9D9F08ABADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA187009-1C20-47EE-ABCD-D103BC2B3766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t>Set ID</t>
   </si>
@@ -406,12 +406,34 @@
   </si>
   <si>
     <t>Solution Frequency</t>
+  </si>
+  <si>
+    <t>Femap RMS Bushing Force</t>
+  </si>
+  <si>
+    <t>lbf</t>
+  </si>
+  <si>
+    <t>Log Freq</t>
+  </si>
+  <si>
+    <t>Log PSD Interpolation</t>
+  </si>
+  <si>
+    <t>Spring Force x G^2/Hz*Freq Interval</t>
+  </si>
+  <si>
+    <t>RMS(Spring Force*G^/Hz*Freq Interval)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -479,11 +501,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -500,11 +574,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -515,6 +660,1084 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Log(G^2/Hz) vs. Log(Freq)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Random Vibe'!$E$6:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Random Vibe'!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A82-47BF-902C-D36BE818CE73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="588685632"/>
+        <c:axId val="588687792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="588685632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Log(Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588687792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="588687792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Log(G^2/Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588685632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E439B5-E5EA-9A37-742D-83313AAC5A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FAE5CC4-D4CD-4E28-848D-32C50F2E0FD3}" name="Table1" displayName="Table1" ref="B5:C9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8E333B8B-10E0-485D-ADBE-EE9E4680992C}" name="Frequency" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{77D852C4-52EE-44D1-8B5A-0DBAA8721F50}" name="G^2/Hz" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{249540DF-9457-4264-8075-C4B4C29DBF29}" name="Table2" displayName="Table2" ref="E5:F9" totalsRowShown="0" headerRowDxfId="0">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A1FE4F42-6F07-4F68-A15B-1D8B1BAFB213}" name="Log(F)">
+      <calculatedColumnFormula>LOG10(B6)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9DFBEABA-3972-446C-8A46-D9E3DA145DD5}" name="Log(G^2/Hz)" dataDxfId="1">
+      <calculatedColumnFormula>LOG(C6)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5308,35 +6531,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3F603A-3503-4A42-9BCB-4F1F8FA6B294}">
-  <dimension ref="B5:K107"/>
+  <dimension ref="B5:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="42" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -5347,18 +6576,33 @@
         <f>LOG10(B6)</f>
         <v>0.69897000433601886</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f>LOG(C6)</f>
         <v>-3</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>20</v>
       </c>
@@ -5369,18 +6613,38 @@
         <f>LOG10(B7)</f>
         <v>1.3010299956639813</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <f t="shared" ref="F7:F9" si="0">LOG(C7)</f>
         <v>-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="10">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <v>109.2958</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="12">
+        <f>LOG(J7)</f>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="N7" s="12">
+        <f>$F$6+($F$7-$F$6)/($E$7-$E$6)*(M7-$E$6)</f>
+        <v>-3</v>
+      </c>
+      <c r="O7" s="12">
+        <f>10^N7</f>
+        <v>1E-3</v>
+      </c>
+      <c r="P7" s="14">
+        <f>K7^2*O7*(J7-0)</f>
+        <v>59.727859488200004</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>SQRT(SUM(P7:P107))</f>
+        <v>66.161919816641685</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>30</v>
       </c>
@@ -5388,21 +6652,37 @@
         <v>1E-4</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E7:E9" si="1">LOG10(B8)</f>
+        <f t="shared" ref="E8:E9" si="1">LOG10(B8)</f>
         <v>1.4771212547196624</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="11">
         <v>113.95489999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="12">
+        <f t="shared" ref="M8:M71" si="2">LOG(J8)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" ref="N8:N27" si="3">$F$6+($F$7-$F$6)/($E$7-$E$6)*(M8-$E$6)</f>
+        <v>-3</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" ref="O8:O71" si="4">10^N8</f>
+        <v>1E-3</v>
+      </c>
+      <c r="P8" s="12">
+        <f>K8^2*O8*(J8-J7)</f>
+        <v>12.98571923401</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>100</v>
       </c>
@@ -5413,806 +6693,2400 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="10">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="11">
         <v>119.9991</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J10" s="2">
+      <c r="M9" s="12">
+        <f t="shared" si="2"/>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P9" s="12">
+        <f>K9^2*O9*(J9-J8)</f>
+        <v>14.39978400081</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="10">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="11">
         <v>127.8192</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J11" s="2">
+      <c r="M10" s="12">
+        <f t="shared" si="2"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P10" s="12">
+        <f>K10^2*O10*(J10-J9)</f>
+        <v>16.337747888639999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="10">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="11">
         <v>138.00790000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="2">
+      <c r="M11" s="12">
+        <f t="shared" si="2"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P11" s="12">
+        <f>K11^2*O11*(J11-J10)</f>
+        <v>19.04618046241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J12" s="10">
         <v>10</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="11">
         <v>151.4967</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J13" s="2">
+      <c r="M12" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P12" s="12">
+        <f>K12^2*O12*(J12-J11)</f>
+        <v>22.951250110890001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J13" s="10">
         <v>11</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="11">
         <v>169.82660000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J14" s="2">
+      <c r="M13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0413926851582251</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P13" s="12">
+        <f>K13^2*O13*(J13-J12)</f>
+        <v>28.841074067560005</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="10">
         <v>12</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="11">
         <v>195.72810000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="2">
+      <c r="M14" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0791812460476249</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P14" s="12">
+        <f>K14^2*O14*(J14-J13)</f>
+        <v>38.309489129610007</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <v>67.81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="10">
         <v>13</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="11">
         <v>234.51660000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <f>3000*(0.0299-0.0166)</f>
-        <v>39.9</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="M15" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1139433523068367</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P15" s="12">
+        <f>K15^2*O15*(J15-J14)</f>
+        <v>54.998035675560011</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J16" s="10">
         <v>14</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="11">
         <v>298.02109999999999</v>
       </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J17" s="2">
+      <c r="M16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.146128035678238</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P16" s="12">
+        <f>K16^2*O16*(J16-J15)</f>
+        <v>88.816576045209999</v>
+      </c>
+    </row>
+    <row r="17" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J17" s="10">
         <v>15</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="11">
         <v>418.50020000000001</v>
       </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J18" s="2">
+      <c r="M17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1760912590556813</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P17" s="12">
+        <f>K17^2*O17*(J17-J16)</f>
+        <v>175.14241740003999</v>
+      </c>
+    </row>
+    <row r="18" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="10">
         <v>15.415760000000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="11">
         <v>506.26990000000001</v>
       </c>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J19" s="2">
+      <c r="M18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1879649403936985</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P18" s="12">
+        <f>K18^2*O18*(J18-J17)</f>
+        <v>106.56311783394527</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="10">
         <v>16</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="11">
         <v>718.29190000000006</v>
       </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="2">
+      <c r="M19" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P19" s="12">
+        <f>K19^2*O19*(J19-J18)</f>
+        <v>301.4346864865413</v>
+      </c>
+    </row>
+    <row r="20" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="10">
         <v>16.272189999999998</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="11">
         <v>885.43820000000005</v>
       </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="2">
+      <c r="M20" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2114460065883681</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P20" s="12">
+        <f>K20^2*O20*(J20-J19)</f>
+        <v>213.39717939037567</v>
+      </c>
+    </row>
+    <row r="21" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J21" s="10">
         <v>17</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="11">
         <v>1628.6690000000001</v>
       </c>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="2">
+      <c r="M21" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2304489213782739</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P21" s="12">
+        <f>K21^2*O21*(J21-J20)</f>
+        <v>1930.561667101216</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="10">
         <v>17.128620000000002</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="11">
         <v>1666.682</v>
       </c>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J23" s="2">
+      <c r="M22" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2337223746101507</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P22" s="12">
+        <f>K22^2*O22*(J22-J21)</f>
+        <v>357.28435171913304</v>
+      </c>
+    </row>
+    <row r="23" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J23" s="10">
         <v>17.985060000000001</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="11">
         <v>831.16899999999998</v>
       </c>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J24" s="2">
+      <c r="M23" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2549118910077659</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P23" s="12">
+        <f>K23^2*O23*(J23-J22)</f>
+        <v>591.66464245510224</v>
+      </c>
+    </row>
+    <row r="24" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J24" s="10">
         <v>18</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="11">
         <v>820.31479999999999</v>
       </c>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J25" s="2">
+      <c r="M24" s="12">
+        <f t="shared" si="2"/>
+        <v>1.255272505103306</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P24" s="12">
+        <f>K24^2*O24*(J24-J23)</f>
+        <v>10.053370584219179</v>
+      </c>
+    </row>
+    <row r="25" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J25" s="10">
         <v>18.84149</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="11">
         <v>454.28609999999998</v>
       </c>
-    </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J26" s="2">
+      <c r="M25" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2751152441676239</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P25" s="12">
+        <f>K25^2*O25*(J25-J24)</f>
+        <v>173.66322298106971</v>
+      </c>
+    </row>
+    <row r="26" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J26" s="10">
         <v>19</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="11">
         <v>416.90750000000003</v>
       </c>
-    </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J27" s="2">
+      <c r="M26" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2787536009528289</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P26" s="12">
+        <f>K26^2*O26*(J26-J25)</f>
+        <v>27.55091849230114</v>
+      </c>
+    </row>
+    <row r="27" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J27" s="10">
         <v>20</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="11">
         <v>270.22460000000001</v>
       </c>
-    </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J28" s="2">
+      <c r="M27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3010299956639813</v>
+      </c>
+      <c r="N27" s="12">
+        <f>$F$7+($F$8-$F$7)/($E$8-$E$7)*(M27-$E$7)</f>
+        <v>-3</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+      <c r="P27" s="12">
+        <f>K27^2*O27*(J27-J26)</f>
+        <v>73.021334445159994</v>
+      </c>
+    </row>
+    <row r="28" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J28" s="10">
         <v>21</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="11">
         <v>196.67060000000001</v>
       </c>
-    </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J29" s="2">
+      <c r="M28" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3222192947339193</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" ref="N28:N37" si="5">$F$7+($F$8-$F$7)/($E$8-$E$7)*(M28-$E$7)</f>
+        <v>-3.1203313508209845</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="4"/>
+        <v>7.5799902879002557E-4</v>
+      </c>
+      <c r="P28" s="12">
+        <f>K28^2*O28*(J28-J27)</f>
+        <v>29.31889071175873</v>
+      </c>
+    </row>
+    <row r="29" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J29" s="10">
         <v>22</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="11">
         <v>152.85120000000001</v>
       </c>
-    </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J30" s="2">
+      <c r="M29" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3424226808222062</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.235063826451126</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="4"/>
+        <v>5.8201767477157574E-4</v>
+      </c>
+      <c r="P29" s="12">
+        <f>K29^2*O29*(J29-J28)</f>
+        <v>13.597963741055404</v>
+      </c>
+    </row>
+    <row r="30" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J30" s="10">
         <v>23</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="11">
         <v>123.9025</v>
       </c>
-    </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J31" s="2">
+      <c r="M30" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3617278360175928</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.3446953623883089</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="4"/>
+        <v>4.5217301173620901E-4</v>
+      </c>
+      <c r="P30" s="12">
+        <f>K30^2*O30*(J30-J29)</f>
+        <v>6.9416829835018614</v>
+      </c>
+    </row>
+    <row r="31" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J31" s="10">
         <v>24</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="11">
         <v>103.4221</v>
       </c>
-    </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J32" s="2">
+      <c r="M31" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3802112417116059</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.4496602867867909</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="4"/>
+        <v>3.5509103943670621E-4</v>
+      </c>
+      <c r="P31" s="12">
+        <f>K31^2*O31*(J31-J30)</f>
+        <v>3.7981001925056419</v>
+      </c>
+    </row>
+    <row r="32" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J32" s="10">
         <v>25</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="11">
         <v>88.210719999999995</v>
       </c>
-    </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33" s="2">
+      <c r="M32" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.5503397132132091</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="4"/>
+        <v>2.8161792017797289E-4</v>
+      </c>
+      <c r="P32" s="12">
+        <f>K32^2*O32*(J32-J31)</f>
+        <v>2.1913059634683743</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J33" s="10">
         <v>26</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="11">
         <v>76.495500000000007</v>
       </c>
-    </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34" s="2">
+      <c r="M33" s="12">
+        <f t="shared" si="2"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.647069893860019</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="4"/>
+        <v>2.2538764518392998E-4</v>
+      </c>
+      <c r="P33" s="12">
+        <f>K33^2*O33*(J33-J32)</f>
+        <v>1.3188696716980453</v>
+      </c>
+    </row>
+    <row r="34" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J34" s="10">
         <v>27</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="11">
         <v>67.215829999999997</v>
       </c>
-    </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35" s="2">
+      <c r="M34" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4313637641589874</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.7401489954353373</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="4"/>
+        <v>1.8190766724188089E-4</v>
+      </c>
+      <c r="P34" s="12">
+        <f>K34^2*O34*(J34-J33)</f>
+        <v>0.8218529836428734</v>
+      </c>
+    </row>
+    <row r="35" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J35" s="10">
         <v>28</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="11">
         <v>59.69894</v>
       </c>
-    </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J36" s="2">
+      <c r="M35" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4471580313422192</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.8298426421724394</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="4"/>
+        <v>1.4796444102994598E-4</v>
+      </c>
+      <c r="P35" s="12">
+        <f>K35^2*O35*(J35-J34)</f>
+        <v>0.52733985782515858</v>
+      </c>
+    </row>
+    <row r="36" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J36" s="10">
         <v>29</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="11">
         <v>53.497700000000002</v>
       </c>
-    </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37" s="2">
+      <c r="M36" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4623979978989561</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="5"/>
+        <v>-3.9163884857223339</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="4"/>
+        <v>1.212303933444673E-4</v>
+      </c>
+      <c r="P36" s="12">
+        <f>K36^2*O36*(J36-J35)</f>
+        <v>0.34696185919170824</v>
+      </c>
+    </row>
+    <row r="37" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J37" s="10">
         <v>30</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="11">
         <v>48.303539999999998</v>
       </c>
-    </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38" s="2">
+      <c r="M37" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="N37" s="12">
+        <f>$F$8+($F$9-$F$8)/($E$9-$E$8)*(M37-$E$8)</f>
+        <v>-4</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P37" s="12">
+        <f>K37^2*O37*(J37-J36)</f>
+        <v>0.23332319765315998</v>
+      </c>
+    </row>
+    <row r="38" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J38" s="10">
         <v>31</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="11">
         <v>43.896709999999999</v>
       </c>
-    </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="2">
+      <c r="M38" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4913616938342726</v>
+      </c>
+      <c r="N38" s="12">
+        <f t="shared" ref="N38:N101" si="6">$F$8+($F$9-$F$8)/($E$9-$E$8)*(M38-$E$8)</f>
+        <v>-4</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P38" s="12">
+        <f>K38^2*O38*(J38-J37)</f>
+        <v>0.19269211488241</v>
+      </c>
+    </row>
+    <row r="39" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J39" s="10">
         <v>32</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="11">
         <v>40.11656</v>
       </c>
-    </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="2">
+      <c r="M39" s="12">
+        <f t="shared" si="2"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O39" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P39" s="12">
+        <f>K39^2*O39*(J39-J38)</f>
+        <v>0.16093383862336</v>
+      </c>
+    </row>
+    <row r="40" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J40" s="10">
         <v>33</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="11">
         <v>36.842950000000002</v>
       </c>
-    </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="2">
+      <c r="M40" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5185139398778875</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O40" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P40" s="12">
+        <f>K40^2*O40*(J40-J39)</f>
+        <v>0.13574029647025002</v>
+      </c>
+    </row>
+    <row r="41" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J41" s="10">
         <v>34</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="11">
         <v>33.984299999999998</v>
       </c>
-    </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="2">
+      <c r="M41" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5314789170422551</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O41" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P41" s="12">
+        <f>K41^2*O41*(J41-J40)</f>
+        <v>0.11549326464899999</v>
+      </c>
+    </row>
+    <row r="42" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J42" s="10">
         <v>35</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="11">
         <v>31.4696</v>
       </c>
-    </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="2">
+      <c r="M42" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5440680443502757</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P42" s="12">
+        <f>K42^2*O42*(J42-J41)</f>
+        <v>9.9033572416000012E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J43" s="10">
         <v>36</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="11">
         <v>29.24296</v>
       </c>
-    </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="2">
+      <c r="M43" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5563025007672873</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P43" s="12">
+        <f>K43^2*O43*(J43-J42)</f>
+        <v>8.5515070956160011E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J44" s="10">
         <v>37</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="11">
         <v>27.259810000000002</v>
       </c>
-    </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="2">
+      <c r="M44" s="12">
+        <f t="shared" si="2"/>
+        <v>1.568201724066995</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O44" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P44" s="12">
+        <f>K44^2*O44*(J44-J43)</f>
+        <v>7.4309724123610019E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J45" s="10">
         <v>38</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="11">
         <v>25.484179999999999</v>
       </c>
-    </row>
-    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="2">
+      <c r="M45" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5797835966168101</v>
+      </c>
+      <c r="N45" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O45" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P45" s="12">
+        <f>K45^2*O45*(J45-J44)</f>
+        <v>6.4944343027240004E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J46" s="10">
         <v>39</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="11">
         <v>23.886749999999999</v>
       </c>
-    </row>
-    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J47" s="2">
+      <c r="M46" s="12">
+        <f t="shared" si="2"/>
+        <v>1.5910646070264991</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O46" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P46" s="12">
+        <f>K46^2*O46*(J46-J45)</f>
+        <v>5.7057682556249996E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J47" s="10">
         <v>40</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="11">
         <v>22.443370000000002</v>
       </c>
-    </row>
-    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J48" s="2">
+      <c r="M47" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6020599913279623</v>
+      </c>
+      <c r="N47" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O47" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P47" s="12">
+        <f>K47^2*O47*(J47-J46)</f>
+        <v>5.0370485695690012E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J48" s="10">
         <v>41</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="11">
         <v>21.133980000000001</v>
       </c>
-    </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49" s="2">
+      <c r="M48" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6127838567197355</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O48" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P48" s="12">
+        <f>K48^2*O48*(J48-J47)</f>
+        <v>4.4664511064040006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J49" s="10">
         <v>42</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="11">
         <v>19.941800000000001</v>
       </c>
-    </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50" s="2">
+      <c r="M49" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6232492903979006</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O49" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P49" s="12">
+        <f>K49^2*O49*(J49-J48)</f>
+        <v>3.9767538724000004E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J50" s="10">
         <v>43</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="11">
         <v>18.85267</v>
       </c>
-    </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51" s="2">
+      <c r="M50" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6334684555795864</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O50" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P50" s="12">
+        <f>K50^2*O50*(J50-J49)</f>
+        <v>3.554231661289E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J51" s="10">
         <v>44</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="11">
         <v>17.854590000000002</v>
       </c>
-    </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="2">
+      <c r="M51" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6434526764861874</v>
+      </c>
+      <c r="N51" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O51" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P51" s="12">
+        <f>K51^2*O51*(J51-J50)</f>
+        <v>3.187863840681001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J52" s="10">
         <v>45</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="11">
         <v>16.937290000000001</v>
       </c>
-    </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53" s="2">
+      <c r="M52" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P52" s="12">
+        <f>K52^2*O52*(J52-J51)</f>
+        <v>2.868717925441E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J53" s="10">
         <v>46</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="11">
         <v>16.09197</v>
       </c>
-    </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54" s="2">
+      <c r="M53" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6627578316815741</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O53" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P53" s="12">
+        <f>K53^2*O53*(J53-J52)</f>
+        <v>2.589514984809E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J54" s="10">
         <v>47</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="11">
         <v>15.31101</v>
       </c>
-    </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="2">
+      <c r="M54" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6720978579357175</v>
+      </c>
+      <c r="N54" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O54" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P54" s="12">
+        <f>K54^2*O54*(J54-J53)</f>
+        <v>2.344270272201E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J55" s="10">
         <v>48</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="11">
         <v>14.587820000000001</v>
       </c>
-    </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56" s="2">
+      <c r="M55" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6812412373755872</v>
+      </c>
+      <c r="N55" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O55" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P55" s="12">
+        <f>K55^2*O55*(J55-J54)</f>
+        <v>2.1280449235240004E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J56" s="10">
         <v>49</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="11">
         <v>13.916650000000001</v>
       </c>
-    </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="2">
+      <c r="M56" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6901960800285136</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O56" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P56" s="12">
+        <f>K56^2*O56*(J56-J55)</f>
+        <v>1.9367314722250003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J57" s="10">
         <v>50</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="11">
         <v>13.29247</v>
       </c>
-    </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58" s="2">
+      <c r="M57" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="N57" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O57" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P57" s="12">
+        <f>K57^2*O57*(J57-J56)</f>
+        <v>1.766897587009E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J58" s="10">
         <v>51</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="11">
         <v>12.710850000000001</v>
       </c>
-    </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59" s="2">
+      <c r="M58" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7075701760979363</v>
+      </c>
+      <c r="N58" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O58" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P58" s="12">
+        <f>K58^2*O58*(J58-J57)</f>
+        <v>1.6156570772250002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J59" s="10">
         <v>52</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="11">
         <v>12.16789</v>
       </c>
-    </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="2">
+      <c r="M59" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7160033436347992</v>
+      </c>
+      <c r="N59" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O59" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P59" s="12">
+        <f>K59^2*O59*(J59-J58)</f>
+        <v>1.4805754705210001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J60" s="10">
         <v>53</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="11">
         <v>11.66014</v>
       </c>
-    </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61" s="2">
+      <c r="M60" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7242758696007889</v>
+      </c>
+      <c r="N60" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O60" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P60" s="12">
+        <f>K60^2*O60*(J60-J59)</f>
+        <v>1.3595886481959999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J61" s="10">
         <v>54</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="11">
         <v>11.18454</v>
       </c>
-    </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62" s="2">
+      <c r="M61" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7323937598229686</v>
+      </c>
+      <c r="N61" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O61" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P61" s="12">
+        <f>K61^2*O61*(J61-J60)</f>
+        <v>1.2509393501160001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J62" s="10">
         <v>55</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="11">
         <v>10.738340000000001</v>
       </c>
-    </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63" s="2">
+      <c r="M62" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7403626894942439</v>
+      </c>
+      <c r="N62" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O62" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P62" s="12">
+        <f>K62^2*O62*(J62-J61)</f>
+        <v>1.1531194595560002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J63" s="10">
         <v>56</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="11">
         <v>10.31912</v>
       </c>
-    </row>
-    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J64" s="2">
+      <c r="M63" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7481880270062005</v>
+      </c>
+      <c r="N63" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O63" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P63" s="12">
+        <f>K63^2*O63*(J63-J62)</f>
+        <v>1.064842375744E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J64" s="10">
         <v>57</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="11">
         <v>9.9246800000000004</v>
       </c>
-    </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J65" s="2">
+      <c r="M64" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7558748556724915</v>
+      </c>
+      <c r="N64" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O64" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P64" s="12">
+        <f>K64^2*O64*(J64-J63)</f>
+        <v>9.8499273102400017E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J65" s="10">
         <v>58</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="11">
         <v>9.5530589999999993</v>
       </c>
-    </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J66" s="2">
+      <c r="M65" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7634279935629373</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O65" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P65" s="12">
+        <f>K65^2*O65*(J65-J64)</f>
+        <v>9.1260936257480992E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J66" s="10">
         <v>59</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="11">
         <v>9.2024860000000004</v>
       </c>
-    </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J67" s="2">
+      <c r="M66" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7708520116421442</v>
+      </c>
+      <c r="N66" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O66" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P66" s="12">
+        <f>K66^2*O66*(J66-J65)</f>
+        <v>8.4685748580196011E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J67" s="10">
         <v>60</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="11">
         <v>8.8713650000000008</v>
       </c>
-    </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J68" s="2">
+      <c r="M67" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7781512503836436</v>
+      </c>
+      <c r="N67" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O67" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P67" s="12">
+        <f>K67^2*O67*(J67-J66)</f>
+        <v>7.8701116963225022E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J68" s="10">
         <v>61</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="11">
         <v>8.558249</v>
       </c>
-    </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J69" s="2">
+      <c r="M68" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7853298350107671</v>
+      </c>
+      <c r="N68" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O68" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P68" s="12">
+        <f>K68^2*O68*(J68-J67)</f>
+        <v>7.324362594600101E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J69" s="10">
         <v>62</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="11">
         <v>8.2618259999999992</v>
       </c>
-    </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J70" s="2">
+      <c r="M69" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7923916894982539</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O69" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P69" s="12">
+        <f>K69^2*O69*(J69-J68)</f>
+        <v>6.825776885427598E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J70" s="10">
         <v>63</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="11">
         <v>7.9809049999999999</v>
       </c>
-    </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J71" s="2">
+      <c r="M70" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7993405494535817</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O70" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P70" s="12">
+        <f>K70^2*O70*(J70-J69)</f>
+        <v>6.3694844619025005E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J71" s="10">
         <v>64</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="11">
         <v>7.7144000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J72" s="2">
+      <c r="M71" s="12">
+        <f t="shared" si="2"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" si="4"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P71" s="12">
+        <f>K71^2*O71*(J71-J70)</f>
+        <v>5.9511967360000011E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J72" s="10">
         <v>65</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="11">
         <v>7.461322</v>
       </c>
-    </row>
-    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J73" s="2">
+      <c r="M72" s="12">
+        <f t="shared" ref="M72:M107" si="7">LOG(J72)</f>
+        <v>1.8129133566428555</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O72" s="12">
+        <f t="shared" ref="O72:O107" si="8">10^N72</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P72" s="12">
+        <f>K72^2*O72*(J72-J71)</f>
+        <v>5.5671325987684001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J73" s="10">
         <v>66</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="11">
         <v>7.2207660000000002</v>
       </c>
-    </row>
-    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J74" s="2">
+      <c r="M73" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8195439355418688</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O73" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P73" s="12">
+        <f>K73^2*O73*(J73-J72)</f>
+        <v>5.2139461626756001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J74" s="10">
         <v>67</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="11">
         <v>6.9919019999999996</v>
       </c>
-    </row>
-    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="2">
+      <c r="M74" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8260748027008264</v>
+      </c>
+      <c r="N74" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O74" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P74" s="12">
+        <f>K74^2*O74*(J74-J73)</f>
+        <v>4.8886693577603994E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J75" s="10">
         <v>68</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="11">
         <v>6.7739710000000004</v>
       </c>
-    </row>
-    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J76" s="2">
+      <c r="M75" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8325089127062364</v>
+      </c>
+      <c r="N75" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O75" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P75" s="12">
+        <f>K75^2*O75*(J75-J74)</f>
+        <v>4.5886683108841003E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J76" s="10">
         <v>69</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="11">
         <v>6.5662739999999999</v>
       </c>
-    </row>
-    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J77" s="2">
+      <c r="M76" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8388490907372552</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O76" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P76" s="12">
+        <f>K76^2*O76*(J76-J75)</f>
+        <v>4.3115954243076E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J77" s="10">
         <v>70</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="11">
         <v>6.3681679999999998</v>
       </c>
-    </row>
-    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J78" s="2">
+      <c r="M77" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8450980400142569</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O77" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P77" s="12">
+        <f>K77^2*O77*(J77-J76)</f>
+        <v>4.0553563676223999E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J78" s="10">
         <v>71</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="11">
         <v>6.1790630000000002</v>
       </c>
-    </row>
-    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J79" s="2">
+      <c r="M78" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8512583487190752</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O78" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P78" s="12">
+        <f>K78^2*O78*(J78-J77)</f>
+        <v>3.8180819557969005E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J79" s="10">
         <v>72</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="11">
         <v>5.9984109999999999</v>
       </c>
-    </row>
-    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J80" s="2">
+      <c r="M79" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8573324964312685</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O79" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P79" s="12">
+        <f>K79^2*O79*(J79-J78)</f>
+        <v>3.5980934524920999E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J80" s="10">
         <v>73</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="11">
         <v>5.8257070000000004</v>
       </c>
-    </row>
-    <row r="81" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J81" s="2">
+      <c r="M80" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8633228601204559</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O80" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P80" s="12">
+        <f>K80^2*O80*(J80-J79)</f>
+        <v>3.3938862049849011E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J81" s="10">
         <v>74</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="11">
         <v>5.6604850000000004</v>
       </c>
-    </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J82" s="2">
+      <c r="M81" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8692317197309762</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O81" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P81" s="12">
+        <f>K81^2*O81*(J81-J80)</f>
+        <v>3.2041090435225004E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J82" s="10">
         <v>75</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="11">
         <v>5.5023119999999999</v>
       </c>
-    </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J83" s="2">
+      <c r="M82" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8750612633917001</v>
+      </c>
+      <c r="N82" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O82" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P82" s="12">
+        <f>K82^2*O82*(J82-J81)</f>
+        <v>3.0275437345344E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J83" s="10">
         <v>76</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="11">
         <v>5.3507850000000001</v>
       </c>
-    </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J84" s="2">
+      <c r="M83" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8808135922807914</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O83" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P83" s="12">
+        <f>K83^2*O83*(J83-J82)</f>
+        <v>2.8630900116225003E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J84" s="10">
         <v>77</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="11">
         <v>5.205533</v>
       </c>
-    </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J85" s="2">
+      <c r="M84" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8864907251724818</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O84" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P84" s="12">
+        <f>K84^2*O84*(J84-J83)</f>
+        <v>2.7097573814089003E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J85" s="10">
         <v>78</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="11">
         <v>5.0662079999999996</v>
       </c>
-    </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J86" s="2">
+      <c r="M85" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8920946026904804</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O85" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P85" s="12">
+        <f>K85^2*O85*(J85-J84)</f>
+        <v>2.5666463499264E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J86" s="10">
         <v>79</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="11">
         <v>4.9324870000000001</v>
       </c>
-    </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J87" s="2">
+      <c r="M86" s="12">
+        <f t="shared" si="7"/>
+        <v>1.8976270912904414</v>
+      </c>
+      <c r="N86" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O86" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P86" s="12">
+        <f>K86^2*O86*(J86-J85)</f>
+        <v>2.4329428005169002E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J87" s="10">
         <v>80</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="11">
         <v>4.8040700000000003</v>
       </c>
-    </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J88" s="2">
+      <c r="M87" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9030899869919435</v>
+      </c>
+      <c r="N87" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O87" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P87" s="12">
+        <f>K87^2*O87*(J87-J86)</f>
+        <v>2.30790885649E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J88" s="10">
         <v>81</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="11">
         <v>4.6806770000000002</v>
       </c>
-    </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J89" s="2">
+      <c r="M88" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9084850188786497</v>
+      </c>
+      <c r="N88" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O88" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P88" s="12">
+        <f>K88^2*O88*(J88-J87)</f>
+        <v>2.1908737178329002E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J89" s="10">
         <v>82</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="11">
         <v>4.5620440000000002</v>
       </c>
-    </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J90" s="2">
+      <c r="M89" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9138138523837167</v>
+      </c>
+      <c r="N89" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O89" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P89" s="12">
+        <f>K89^2*O89*(J89-J88)</f>
+        <v>2.0812245457936E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J90" s="10">
         <v>83</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="11">
         <v>4.447927</v>
       </c>
-    </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J91" s="2">
+      <c r="M90" s="12">
+        <f t="shared" si="7"/>
+        <v>1.919078092376074</v>
+      </c>
+      <c r="N90" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O90" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P90" s="12">
+        <f>K90^2*O90*(J90-J89)</f>
+        <v>1.9784054597329001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J91" s="10">
         <v>84</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="11">
         <v>4.3380970000000003</v>
       </c>
-    </row>
-    <row r="92" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J92" s="2">
+      <c r="M91" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9242792860618816</v>
+      </c>
+      <c r="N91" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O91" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P91" s="12">
+        <f>K91^2*O91*(J91-J90)</f>
+        <v>1.8819085581409003E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J92" s="10">
         <v>85</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="11">
         <v>4.2323380000000004</v>
       </c>
-    </row>
-    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J93" s="2">
+      <c r="M92" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9294189257142926</v>
+      </c>
+      <c r="N92" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O92" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P92" s="12">
+        <f>K92^2*O92*(J92-J91)</f>
+        <v>1.7912684946244004E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J93" s="10">
         <v>86</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="11">
         <v>4.1304499999999997</v>
       </c>
-    </row>
-    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J94" s="2">
+      <c r="M93" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9344984512435677</v>
+      </c>
+      <c r="N93" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O93" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P93" s="12">
+        <f>K93^2*O93*(J93-J92)</f>
+        <v>1.7060617202499999E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J94" s="10">
         <v>87</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="11">
         <v>4.0322430000000002</v>
       </c>
-    </row>
-    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J95" s="2">
+      <c r="M94" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9395192526186185</v>
+      </c>
+      <c r="N94" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O94" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P94" s="12">
+        <f>K94^2*O94*(J94-J93)</f>
+        <v>1.6258983611049001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J95" s="10">
         <v>88</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="11">
         <v>3.937541</v>
       </c>
-    </row>
-    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J96" s="2">
+      <c r="M95" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9444826721501687</v>
+      </c>
+      <c r="N95" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O95" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P95" s="12">
+        <f>K95^2*O95*(J95-J94)</f>
+        <v>1.5504229126681E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J96" s="10">
         <v>89</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="11">
         <v>3.846177</v>
       </c>
-    </row>
-    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J97" s="2">
+      <c r="M96" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9493900066449128</v>
+      </c>
+      <c r="N96" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O96" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P96" s="12">
+        <f>K96^2*O96*(J96-J95)</f>
+        <v>1.4793077515328999E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J97" s="10">
         <v>90</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="11">
         <v>3.7579929999999999</v>
       </c>
-    </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J98" s="2">
+      <c r="M97" s="12">
+        <f t="shared" si="7"/>
+        <v>1.954242509439325</v>
+      </c>
+      <c r="N97" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O97" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P97" s="12">
+        <f>K97^2*O97*(J97-J96)</f>
+        <v>1.4122511388048999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J98" s="10">
         <v>91</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="11">
         <v>3.6728429999999999</v>
       </c>
-    </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J99" s="2">
+      <c r="M98" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9590413923210936</v>
+      </c>
+      <c r="N98" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O98" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P98" s="12">
+        <f>K98^2*O98*(J98-J97)</f>
+        <v>1.3489775702648999E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J99" s="10">
         <v>92</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="11">
         <v>3.5905860000000001</v>
       </c>
-    </row>
-    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J100" s="2">
+      <c r="M99" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9637878273455553</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O99" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P99" s="12">
+        <f>K99^2*O99*(J99-J98)</f>
+        <v>1.2892307823396002E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J100" s="10">
         <v>93</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="11">
         <v>3.5110929999999998</v>
       </c>
-    </row>
-    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J101" s="2">
+      <c r="M100" s="12">
+        <f t="shared" si="7"/>
+        <v>1.968482948553935</v>
+      </c>
+      <c r="N100" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O100" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P100" s="12">
+        <f>K100^2*O100*(J100-J99)</f>
+        <v>1.2327774054648999E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J101" s="10">
         <v>94</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="11">
         <v>3.43424</v>
       </c>
-    </row>
-    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J102" s="2">
+      <c r="M101" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9731278535996986</v>
+      </c>
+      <c r="N101" s="12">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="O101" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P101" s="12">
+        <f>K101^2*O101*(J101-J100)</f>
+        <v>1.1794004377600001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J102" s="10">
         <v>95</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="11">
         <v>3.359909</v>
       </c>
-    </row>
-    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J103" s="2">
+      <c r="M102" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9777236052888478</v>
+      </c>
+      <c r="N102" s="12">
+        <f t="shared" ref="N102:N107" si="9">$F$8+($F$9-$F$8)/($E$9-$E$8)*(M102-$E$8)</f>
+        <v>-4</v>
+      </c>
+      <c r="O102" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P102" s="12">
+        <f>K102^2*O102*(J102-J101)</f>
+        <v>1.1288988488281E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J103" s="10">
         <v>96</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="11">
         <v>3.2879900000000002</v>
       </c>
-    </row>
-    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J104" s="2">
+      <c r="M103" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9822712330395684</v>
+      </c>
+      <c r="N103" s="12">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="O103" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P103" s="12">
+        <f>K103^2*O103*(J103-J102)</f>
+        <v>1.0810878240100001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J104" s="10">
         <v>97</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="11">
         <v>3.2183790000000001</v>
       </c>
-    </row>
-    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J105" s="2">
+      <c r="M104" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9867717342662448</v>
+      </c>
+      <c r="N104" s="12">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="O104" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P104" s="12">
+        <f>K104^2*O104*(J104-J103)</f>
+        <v>1.0357963387641E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J105" s="10">
         <v>98</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="11">
         <v>3.1509779999999998</v>
       </c>
-    </row>
-    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J106" s="2">
+      <c r="M105" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9912260756924949</v>
+      </c>
+      <c r="N105" s="12">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="O105" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P105" s="12">
+        <f>K105^2*O105*(J105-J104)</f>
+        <v>9.928662356483999E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J106" s="10">
         <v>99</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="11">
         <v>3.085693</v>
       </c>
-    </row>
-    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J107" s="2">
+      <c r="M106" s="12">
+        <f t="shared" si="7"/>
+        <v>1.9956351945975499</v>
+      </c>
+      <c r="N106" s="12">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="O106" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P106" s="12">
+        <f>K106^2*O106*(J106-J105)</f>
+        <v>9.5215012902490005E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J107" s="10">
         <v>100</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="11">
         <v>3.0224350000000002</v>
+      </c>
+      <c r="M107" s="12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N107" s="12">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="O107" s="12">
+        <f t="shared" si="8"/>
+        <v>1E-4</v>
+      </c>
+      <c r="P107" s="12">
+        <f>K107^2*O107*(J107-J106)</f>
+        <v>9.1351133292250021E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>